--- a/SuppXLS/Scen_UC_HeatPumps_MinCAP_Hi.xlsx
+++ b/SuppXLS/Scen_UC_HeatPumps_MinCAP_Hi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\EU-TIMES\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\EU_TIMES_Veda2p0\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9660DE7-5FAA-4412-B1ED-9799CCAAF10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB95FDE4-C52A-467C-A7C4-867214F4B934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="570" windowWidth="25080" windowHeight="15030" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
